--- a/Projects 2023/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
+++ b/Projects 2023/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FBA09-59B5-4519-84C9-642712CF020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A725E-00F3-4300-88AB-47ED4D88A995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="18" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
     <definedName name="PhaseCode">'[6]Fill this out first...'!$D$17</definedName>
     <definedName name="PrevYears">'[6]Fill this out first...'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Grand Summary'!$A$1:$E$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sum!$A$1:$C$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sum!$A$1:$C$24</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Fire!$7:$8</definedName>
@@ -2673,7 +2673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -3284,6 +3284,9 @@
   </si>
   <si>
     <t>Total work done upto final bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -3291,14 +3294,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#.##0\."/>
-    <numFmt numFmtId="167" formatCode="\$#\."/>
-    <numFmt numFmtId="168" formatCode="#\.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#.##0\."/>
+    <numFmt numFmtId="169" formatCode="\$#\."/>
+    <numFmt numFmtId="170" formatCode="#\.00"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="54" x14ac:knownFonts="1">
     <font>
@@ -4096,10 +4099,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4128,29 +4131,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4205,12 +4208,12 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4224,10 +4227,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="28" fillId="26" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4295,7 +4298,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4307,11 +4310,11 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="25" borderId="1" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="25" borderId="1" xfId="79" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4319,7 +4322,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="26" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="26" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4339,7 +4342,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="25" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="25" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4355,15 +4358,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="27" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="27" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="27" borderId="21" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="31" fillId="27" borderId="21" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4380,16 +4383,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="88" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="11" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4434,19 +4437,19 @@
     <xf numFmtId="0" fontId="34" fillId="25" borderId="1" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="21" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="21" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="88" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="1" xfId="88" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4500,11 +4503,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="88" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="27" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="27" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4543,7 +4546,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="44" fillId="26" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="44" fillId="26" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="21" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4554,11 +4557,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="29" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="29" borderId="21" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="31" fillId="29" borderId="21" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4566,7 +4569,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="29" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="29" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4574,19 +4577,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="47" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="92" applyFont="1"/>
-    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
@@ -4600,7 +4603,7 @@
     <xf numFmtId="0" fontId="49" fillId="30" borderId="1" xfId="92" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4609,7 +4612,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="48" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
@@ -4621,19 +4624,19 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="1" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="49" fillId="0" borderId="1" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="49" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="49" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="1" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="47" fillId="0" borderId="1" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
@@ -4673,6 +4676,21 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4693,21 +4711,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7001,6 +7004,9 @@
         <row r="26">
           <cell r="C26">
             <v>3154108.1</v>
+          </cell>
+          <cell r="D26">
+            <v>3091025.3200000003</v>
           </cell>
         </row>
       </sheetData>
@@ -10939,10 +10945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2285F-9A53-4E31-B589-A72E744EEDE5}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -11091,59 +11097,64 @@
     <row r="19" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117"/>
       <c r="B19" s="122" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="123">
-        <f>C13*4.5%</f>
-        <v>606186.83699999994</v>
+        <f>[11]Sheet1!$D$26</f>
+        <v>3091025.3200000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117"/>
       <c r="B20" s="122" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="123">
-        <f>[11]Sheet1!$C$26</f>
-        <v>3154108.1</v>
+        <f>C19+C13</f>
+        <v>16561843.92</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117"/>
       <c r="B21" s="122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="123">
-        <f>C20+C19+C13</f>
-        <v>17231113.537</v>
+        <f>C20*4.5%</f>
+        <v>745282.97639999993</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117"/>
       <c r="B22" s="122" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="123">
-        <v>14475224</v>
+        <f>C21+C20</f>
+        <v>17307126.896400001</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117"/>
       <c r="B23" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="123">
+        <v>14475224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="117"/>
+      <c r="B24" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="123">
-        <f>C21-C22</f>
-        <v>2755889.5370000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="130"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="109"/>
+      <c r="C24" s="123">
+        <f>C22-C23</f>
+        <v>2831902.8964000009</v>
+      </c>
     </row>
     <row r="25" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="131"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="129"/>
       <c r="C25" s="109"/>
     </row>
@@ -11153,8 +11164,8 @@
       <c r="C26" s="109"/>
     </row>
     <row r="27" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="109"/>
     </row>
     <row r="28" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
@@ -11164,8 +11175,13 @@
     </row>
     <row r="29" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="132"/>
-      <c r="B29" s="134"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="109"/>
+    </row>
+    <row r="30" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="132"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11192,7 +11208,7 @@
   </sheetPr>
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -11208,13 +11224,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -11230,13 +11246,13 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -11252,20 +11268,20 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -11278,10 +11294,10 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -11289,8 +11305,8 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -11298,10 +11314,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11312,8 +11328,8 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
@@ -11321,10 +11337,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
@@ -11335,17 +11351,17 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="10"/>
       <c r="E15" s="96">
         <f>SUM(E10:E14)</f>
@@ -11394,17 +11410,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
